--- a/report/allerganpro_responses.xlsx
+++ b/report/allerganpro_responses.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -428,15 +428,15 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>https://preview.allerganpro.com/bin/public/abbvie-commons/hreflangs?resourcePath=/content/allergan-pro/basic-login/jcr:content</v>
+        <v>https://preview.allerganpro.com/bin/public/abbvie-commons/basic-login</v>
       </c>
       <c r="B4">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>https://preview.allerganpro.com/libs/granite/csrf/token.json</v>
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D42_sn_FUIEST49VJHI6N83HHKMNSHTA28UU6KB&amp;svrid=-42&amp;flavor=cors&amp;vi=MKHHAUQAKNCIRBPPMRQNSPFIQMMATKGB-0&amp;modifiedSince=1665670355615&amp;rf=https%3A%2F%2Fpreview.allerganpro.com%2Fbasic-login.html&amp;bp=3&amp;app=b90c0fbe356a6561&amp;crc=1619779023&amp;en=oao3vfhf&amp;end=1</v>
       </c>
       <c r="B5">
         <v>200</v>
@@ -444,7 +444,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D81_sn_DTUEPFKC9OVKE9K6TV49L766L8E5L3MA&amp;svrid=-81&amp;flavor=cors&amp;vi=MORHJCKRLBMCTELCOMKMFFLFBSETKRFW-0&amp;modifiedSince=1665670355615&amp;rf=https%3A%2F%2Fpreview.allerganpro.com%2Fbasic-login.html&amp;bp=3&amp;app=b90c0fbe356a6561&amp;crc=2981482893&amp;en=oao3vfhf&amp;end=1</v>
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D42_sn_FUIEST49VJHI6N83HHKMNSHTA28UU6KB&amp;svrid=-42&amp;flavor=cors&amp;vi=MKHHAUQAKNCIRBPPMRQNSPFIQMMATKGB-0&amp;modifiedSince=1665670355615&amp;rf=https%3A%2F%2Fpreview.allerganpro.com%2Fbasic-login.html&amp;bp=3&amp;app=b90c0fbe356a6561&amp;crc=2003289253&amp;en=oao3vfhf&amp;end=1</v>
       </c>
       <c r="B6">
         <v>200</v>
@@ -452,15 +452,15 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>https://preview.allerganpro.com/bin/public/abbvie-commons/basic-login</v>
+        <v>https://preview.allerganpro.com/etc.clientlibs/abbvie-pro/clientlibs/allergan-pro/publish-header.min.css</v>
       </c>
       <c r="B7">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D81_sn_DTUEPFKC9OVKE9K6TV49L766L8E5L3MA&amp;svrid=-81&amp;flavor=cors&amp;vi=MORHJCKRLBMCTELCOMKMFFLFBSETKRFW-0&amp;modifiedSince=1665670355615&amp;rf=https%3A%2F%2Fpreview.allerganpro.com%2Fbasic-login.html&amp;bp=3&amp;app=b90c0fbe356a6561&amp;crc=3974759303&amp;en=oao3vfhf&amp;end=1</v>
+        <v>https://preview.allerganpro.com/etc.clientlibs/abbvie-pro/clientlibs/allergan-pro/publish-header.min.js</v>
       </c>
       <c r="B8">
         <v>200</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>https://preview.allerganpro.com/co/es.html</v>
+        <v>https://preview.allerganpro.com/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
       </c>
       <c r="B9">
         <v>200</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>https://preview.allerganpro.com/etc.clientlibs/abbvie-pro/clientlibs/allergan-pro/publish-header.min.css</v>
+        <v>https://preview.allerganpro.com/etc.clientlibs/abbvie-pro/components/content/headline-text/clientlibs.min.js</v>
       </c>
       <c r="B10">
         <v>200</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>https://preview.allerganpro.com/etc.clientlibs/abbvie-pro/clientlibs/allergan-pro/publish-header.min.js</v>
+        <v>https://preview.allerganpro.com/etc.clientlibs/abbvie-pro/components/content/button-link/clientlibs.min.css</v>
       </c>
       <c r="B11">
         <v>200</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>https://preview.allerganpro.com/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
+        <v>https://preview.allerganpro.com/etc.clientlibs/abbvie-pro/components/content/button-link/clientlibs.min.js</v>
       </c>
       <c r="B12">
         <v>200</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>https://preview.allerganpro.com/etc.clientlibs/abbvie-pro/components/content/headline-text/clientlibs.min.js</v>
+        <v>https://cag.abbvie.com:9999/jstag/managed/ruxitagent_A2Vfqru_10249220905100923.js</v>
       </c>
       <c r="B13">
         <v>200</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>https://preview.allerganpro.com/etc.clientlibs/abbvie-pro/components/content/button-link/clientlibs.min.css</v>
+        <v>https://preview.allerganpro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_bold.woff2</v>
       </c>
       <c r="B14">
         <v>200</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>https://preview.allerganpro.com/etc.clientlibs/abbvie-pro/components/content/button-link/clientlibs.min.js</v>
+        <v>https://preview.allerganpro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_light.woff2</v>
       </c>
       <c r="B15">
         <v>200</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>https://preview.allerganpro.com/etc.clientlibs/abbvie-pro/clientlibs/publish-footer.min.js</v>
+        <v>https://preview.allerganpro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_regular.woff2</v>
       </c>
       <c r="B16">
         <v>200</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>https://cag.abbvie.com:9999/jstag/managed/ruxitagent_A2Vfqru_10249220905100923.js</v>
+        <v>https://preview.allerganpro.com/co/es.html</v>
       </c>
       <c r="B17">
         <v>200</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>https://preview.allerganpro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/Mobile%20nav.png</v>
+        <v>https://preview.allerganpro.com/etc.clientlibs/abbvie-pro/clientlibs/publish-footer.min.js</v>
       </c>
       <c r="B18">
         <v>200</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>https://preview.allerganpro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_bold.woff2</v>
+        <v>https://preview.allerganpro.com/content/dam/abbvie-pro/co/abbvieprologo/AbbviePRO.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
       </c>
       <c r="B19">
         <v>200</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>https://preview.allerganpro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_light.woff2</v>
+        <v>https://preview.allerganpro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/Mobile%20nav.png</v>
       </c>
       <c r="B20">
         <v>200</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>https://preview.allerganpro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_regular.woff2</v>
+        <v>https://consent.trustarc.com/v2/notice/hvz0wu</v>
       </c>
       <c r="B21">
         <v>200</v>
@@ -604,7 +604,7 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>https://preview.allerganpro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/hcpicon/hcpicon.ttf?q0neb3</v>
+        <v>https://consent.trustarc.com/v2/asset/ic-error.svg</v>
       </c>
       <c r="B26">
         <v>200</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>https://preview.allerganpro.com/bin/public/abbvie-commons/hreflangs?resourcePath=/content/allergan-pro/co/es/jcr:content</v>
+        <v>https://consent.trustarc.com/v2/asset/ic-close-white.svg</v>
       </c>
       <c r="B27">
         <v>200</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>https://consent.trustarc.com/v2/notice/hvz0wu</v>
+        <v>https://consent.trustarc.com/v2/asset/ic-close.svg</v>
       </c>
       <c r="B28">
         <v>200</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>https://consent.trustarc.com/v2/asset/ic-error.svg</v>
+        <v>https://consent.trustarc.com/v2/asset/trustarc-logo-xs.svg</v>
       </c>
       <c r="B29">
         <v>200</v>
@@ -636,7 +636,7 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>https://consent.trustarc.com/v2/asset/ic-close-white.svg</v>
+        <v>https://consent.trustarc.com/v2/asset/latin.woff2</v>
       </c>
       <c r="B30">
         <v>200</v>
@@ -644,15 +644,15 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>https://consent.trustarc.com/v2/asset/ic-close.svg</v>
+        <v>https://preview.allerganpro.com/content/allergan-pro/co/es/jcr:content/header/header_area/image-extension/item_1.coreimg.png/1682019219951-AbbviePRO.png</v>
       </c>
       <c r="B31">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>https://consent.trustarc.com/v2/asset/trustarc-logo-xs.svg</v>
+        <v>https://preview.allerganpro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/hcpicon/hcpicon.ttf?q0neb3</v>
       </c>
       <c r="B32">
         <v>200</v>
@@ -660,7 +660,7 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>https://consent.trustarc.com/v2/asset/latin.woff2</v>
+        <v>https://preview.allerganpro.com/libs/granite/csrf/token.json</v>
       </c>
       <c r="B33">
         <v>200</v>
@@ -668,7 +668,7 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>https://preview.allerganpro.com/libs/granite/csrf/token.json</v>
+        <v>https://consent.trustarc.com/v2/consentcategories/getnonemptyindexes?cmId=hvz0wu&amp;referer=&amp;fullURL=https%3A%2F%2Fpreview.allerganpro.com%2Fco%2Fes.html&amp;category=</v>
       </c>
       <c r="B34">
         <v>200</v>
@@ -676,42 +676,42 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>https://preview.allerganpro.com/content/dam/abbvie-pro/co/abbvieprologo/AbbviePRO.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+        <v>https://consent-reporting.trustarc.com/api/user-action/log?action=impression&amp;domain=hvz0wu&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.5844605959308773&amp;session=aa6cbbf4-d6fc-4622-a991-47ecda4fc6e3&amp;userType=NEW</v>
       </c>
       <c r="B35">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>https://consent-reporting.trustarc.com/api/user-action/log?action=impression&amp;domain=hvz0wu&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.41255887736921504&amp;session=184ccd57-2201-4ace-b8fd-263ddc6bdf82&amp;userType=NEW</v>
+        <v>https://preview.allerganpro.com/bin/public/abbvie-commons/hreflangs?resourcePath=/content/allergan-pro/co/es/jcr:content</v>
       </c>
       <c r="B36">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>https://consent-reporting.trustarc.com/api/user-action/bannermsg?action=views&amp;domain=hvz0wu&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.3778475736614664&amp;session=184ccd57-2201-4ace-b8fd-263ddc6bdf82&amp;userType=NEW</v>
+        <v>https://consent.trustarc.com/v2/asset/16:19:49.763hvz0wu_AbbVieID-logo.png</v>
       </c>
       <c r="B37">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>https://preview.allerganpro.com/content/allergan-pro/co/es/jcr:content/header/header_area/image-extension/item_1.coreimg.png/1682019219951-AbbviePRO.png</v>
+        <v>https://preview.allerganpro.com/content/allergan-pro/co/es/jcr%3acontent/header/header_area/image-extension/item_1.coreimg.png/1707333003504.png</v>
       </c>
       <c r="B38">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>https://consent.trustarc.com/v2/asset/16:19:49.763hvz0wu_AbbVieID-logo.png</v>
+        <v>https://consent-reporting.trustarc.com/api/user-action/bannermsg?action=views&amp;domain=hvz0wu&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.09455427329307686&amp;session=aa6cbbf4-d6fc-4622-a991-47ecda4fc6e3&amp;userType=NEW</v>
       </c>
       <c r="B39">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40">
@@ -732,7 +732,7 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>https://consent.trustarc.com/v2/consentcategories/getnonemptyindexes?cmId=hvz0wu&amp;referer=&amp;fullURL=https%3A%2F%2Fpreview.allerganpro.com%2Fco%2Fes.html&amp;category=</v>
+        <v>https://preview.allerganpro.com/content/dam/allergan-pro/colombia/home/New%20banner%20Home%20Allergan%20pro.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
       </c>
       <c r="B42">
         <v>200</v>
@@ -740,7 +740,7 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>https://preview.allerganpro.com/content/dam/allergan-pro/colombia/home/New%20banner%20Home%20Allergan%20pro.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+        <v>https://preview.allerganpro.com/content/allergan-pro/co/es/jcr:content/body/column_control_copy/par1-100col/column_control_18337/par1-100col/column_control/par2-5050col/image_extension_copy/item_1.coreimg.png/1655224770198-Home_Articulos02.png</v>
       </c>
       <c r="B43">
         <v>200</v>
@@ -748,79 +748,15 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>https://preview.allerganpro.com/content/allergan-pro/co/es/jcr%3acontent/header/header_area/image-extension/item_1.coreimg.png/1707333003504.png</v>
+        <v>https://preview.allerganpro.com/content/allergan-pro/co/es/jcr:content/body/column_control_copy/par1-100col/column_control_18337/par1-100col/column_control/par1-5050col/image_extension_copy/item_1.coreimg.png/1637251107888-Home_Articulos01.png</v>
       </c>
       <c r="B44">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="str">
-        <v>https://preview.allerganpro.com/content/allergan-pro/co/es/jcr:content/body/column_control_copy/par1-100col/column_control_18337/par1-100col/column_control/par2-5050col/image_extension_copy/item_1.coreimg.png/1655224770198-Home_Articulos02.png</v>
-      </c>
-      <c r="B45">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="str">
-        <v>https://preview.allerganpro.com/content/allergan-pro/co/es/jcr:content/body/column_control_copy/par1-100col/column_control_18337/par1-100col/column_control/par1-5050col/image_extension_copy/item_1.coreimg.png/1637251107888-Home_Articulos01.png</v>
-      </c>
-      <c r="B46">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D81_sn_DTUEPFKC9OVKE9K6TV49L766L8E5L3MA&amp;svrid=-81&amp;flavor=cors&amp;vi=MORHJCKRLBMCTELCOMKMFFLFBSETKRFW-0&amp;modifiedSince=1665670355615&amp;rf=https%3A%2F%2Fpreview.allerganpro.com%2Fco%2Fes.html&amp;bp=3&amp;app=b90c0fbe356a6561&amp;crc=385236334&amp;en=oao3vfhf&amp;end=1</v>
-      </c>
-      <c r="B47">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D81_sn_DTUEPFKC9OVKE9K6TV49L766L8E5L3MA&amp;svrid=-81&amp;flavor=cors&amp;vi=MORHJCKRLBMCTELCOMKMFFLFBSETKRFW-0&amp;modifiedSince=1665670355615&amp;rf=https%3A%2F%2Fpreview.allerganpro.com%2Fco%2Fes.html&amp;bp=3&amp;app=b90c0fbe356a6561&amp;crc=385236334&amp;en=oao3vfhf&amp;end=1</v>
-      </c>
-      <c r="B48">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D81_sn_DTUEPFKC9OVKE9K6TV49L766L8E5L3MA&amp;svrid=-81&amp;flavor=cors&amp;vi=MORHJCKRLBMCTELCOMKMFFLFBSETKRFW-0&amp;modifiedSince=1665670355615&amp;rf=https%3A%2F%2Fpreview.allerganpro.com%2Fco%2Fes.html&amp;bp=3&amp;app=b90c0fbe356a6561&amp;crc=3392503949&amp;en=oao3vfhf&amp;end=1</v>
-      </c>
-      <c r="B49">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D81_sn_DTUEPFKC9OVKE9K6TV49L766L8E5L3MA&amp;svrid=-81&amp;flavor=cors&amp;vi=MORHJCKRLBMCTELCOMKMFFLFBSETKRFW-0&amp;modifiedSince=1665670355615&amp;rf=https%3A%2F%2Fpreview.allerganpro.com%2Fco%2Fes.html&amp;bp=3&amp;app=b90c0fbe356a6561&amp;crc=3392503949&amp;en=oao3vfhf&amp;end=1</v>
-      </c>
-      <c r="B50">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_8_sn_DTUEPFKC9OVKE9K6TV49L766L8E5L3MA_app-3Ab90c0fbe356a6561_1_ol_0_perc_100000_mul_1&amp;svrid=8&amp;flavor=cors&amp;vi=MORHJCKRLBMCTELCOMKMFFLFBSETKRFW-0&amp;modifiedSince=1718215562229&amp;rf=https%3A%2F%2Fpreview.allerganpro.com%2Fco%2Fes.html&amp;bp=3&amp;app=b90c0fbe356a6561&amp;crc=13872139&amp;en=oao3vfhf&amp;end=1</v>
-      </c>
-      <c r="B51">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_8_sn_DTUEPFKC9OVKE9K6TV49L766L8E5L3MA_app-3Ab90c0fbe356a6561_1_ol_0_perc_100000_mul_1&amp;svrid=8&amp;flavor=cors&amp;vi=MORHJCKRLBMCTELCOMKMFFLFBSETKRFW-0&amp;modifiedSince=1718215562229&amp;rf=https%3A%2F%2Fpreview.allerganpro.com%2Fco%2Fes.html&amp;bp=3&amp;app=b90c0fbe356a6561&amp;crc=13872139&amp;en=oao3vfhf&amp;end=1</v>
-      </c>
-      <c r="B52">
         <v>200</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B52"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B44"/>
   </ignoredErrors>
 </worksheet>
 </file>